--- a/Lost and Found Project/DOCUMENTATION/My Files/LF_GANTT_CHART.xlsx
+++ b/Lost and Found Project/DOCUMENTATION/My Files/LF_GANTT_CHART.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adity\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSCIT\TY\5TH SEM\TYIT-5th-sem\Lost and Found Project\DOCUMENTATION\My Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6463EC9F-213D-42CF-9FF9-834B6317E828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27889D10-FA0C-43A1-9691-33892A14B142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Chart1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -164,12 +165,129 @@
   <si>
     <t>T15</t>
   </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>T27</t>
+  </si>
+  <si>
+    <t>T28</t>
+  </si>
+  <si>
+    <t>T29</t>
+  </si>
+  <si>
+    <t>T30</t>
+  </si>
+  <si>
+    <t>T31</t>
+  </si>
+  <si>
+    <t>T32</t>
+  </si>
+  <si>
+    <t>T33</t>
+  </si>
+  <si>
+    <t>T34</t>
+  </si>
+  <si>
+    <t>T35</t>
+  </si>
+  <si>
+    <t>T36</t>
+  </si>
+  <si>
+    <t>T37</t>
+  </si>
+  <si>
+    <t>T38</t>
+  </si>
+  <si>
+    <t>T39</t>
+  </si>
+  <si>
+    <t>T40</t>
+  </si>
+  <si>
+    <t>T41</t>
+  </si>
+  <si>
+    <t>T42</t>
+  </si>
+  <si>
+    <t>T43</t>
+  </si>
+  <si>
+    <t>T44</t>
+  </si>
+  <si>
+    <t>T45</t>
+  </si>
+  <si>
+    <t>T46</t>
+  </si>
+  <si>
+    <t>T47</t>
+  </si>
+  <si>
+    <t>T48</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Decemeber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTIMATE DATE   </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -205,6 +323,43 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial Black"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -251,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="92">
     <border>
       <left/>
       <right/>
@@ -976,11 +1131,515 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1058,6 +1717,49 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1104,49 +1806,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2768,6 +3548,4565 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3485</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>136326</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119234</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43ADD58F-DAF8-49B7-BF22-FA856201974C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933125" y="579119"/>
+          <a:ext cx="940561" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>176305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43831</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>287920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE50D1E-0116-419E-9996-B837E424852D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1737521" y="747805"/>
+          <a:ext cx="851390" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>21536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>136326</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637048FC-9DD6-4E82-80EC-90A68E96E757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="932180" y="966416"/>
+          <a:ext cx="941506" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>280894</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>136326</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>301837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1997F40-EFC2-4791-BB43-E1F61D2609B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1614394" y="1135102"/>
+          <a:ext cx="259292" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257373</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>37160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>132781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969AC5DA-09C0-4CF1-B538-818B37E0AAFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2398593" y="1347046"/>
+          <a:ext cx="183647" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>356539</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>181386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>37160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>293000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7F6EC4-A3DA-4E27-844D-175B2DC87559}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2497759" y="1507266"/>
+          <a:ext cx="84481" cy="111614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>37160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>348624</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB1D901-CC5F-455C-8164-A601A9E19750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2582240" y="1744979"/>
+          <a:ext cx="311464" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>73766</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>194932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>49764</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>306547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F53C6B-BD86-47B8-979C-7C38E1884B95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2618846" y="1909432"/>
+          <a:ext cx="1591438" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>136326</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>157281</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA57B34A-29D6-4BCC-9748-DCB4ECE1EA0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948940" y="2141166"/>
+          <a:ext cx="944046" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>136159</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>208002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>203743</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>319617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE6F53F-274A-43A5-B900-9727B7CF76D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3892819" y="2303502"/>
+          <a:ext cx="1279164" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>249555</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>221074</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>124314</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B705C017-F865-458F-BF97-0BABC476B5DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6833235" y="2885440"/>
+          <a:ext cx="375379" cy="111614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>88392</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>234233</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>312274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{591B4F2A-777D-4ECE-8857-EC08455600AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7075932" y="3073400"/>
+          <a:ext cx="549701" cy="111614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>380107</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>58402</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF007EB-581B-4CFA-B596-EE1BB036376A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4944487" y="3279285"/>
+          <a:ext cx="889875" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>62072</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>194455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>306069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD375A5A-9F65-4E6D-B2E1-E67E2A2F9E73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5434172" y="3448195"/>
+          <a:ext cx="749458" cy="111614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400123</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>106928</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>124314</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A62136-A3D7-4204-9C8C-E51CDEEE5746}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6176083" y="3655060"/>
+          <a:ext cx="110665" cy="111614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>307712</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>181609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>4947</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>293224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A3B835-CFDD-4EBE-9745-8DA7A2B1186F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6083672" y="3823969"/>
+          <a:ext cx="908815" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22486</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>10007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121621</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4D68D1-DCDB-4B7B-860A-ACF6D82F8823}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010026" y="4033367"/>
+          <a:ext cx="986941" cy="111614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>264730</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>186966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>362799</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>298580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB404611-5E9B-48B6-A4FD-945DF75E31D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7252270" y="4210326"/>
+          <a:ext cx="1713509" cy="111614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>263132</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7958</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>126898</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0228645-477F-4074-A834-0ABD2D355A0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8058392" y="4427264"/>
+          <a:ext cx="552546" cy="111614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>278623</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>211245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>250077</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>322860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F258BFF2-DA78-4D47-8BBC-92ECFEF3A211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8073883" y="4623225"/>
+          <a:ext cx="1586894" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>132342</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>363569</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C51455-5341-4A3E-8C9D-5A9617AD0FA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8331462" y="4831151"/>
+          <a:ext cx="231227" cy="111614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>134498</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>205250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>316864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B1A881-2CD2-4E44-83DC-4EEB1FF7D925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8333618" y="5005850"/>
+          <a:ext cx="621787" cy="111614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>222354</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133946</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79588A7-1FFA-4096-998B-482B29965CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9006990" y="5211552"/>
+          <a:ext cx="626064" cy="111614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7151</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>194379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>229849</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>305993</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0B954A8-A57A-4A70-9B87-B36547DE337B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9013991" y="5383599"/>
+          <a:ext cx="626558" cy="111614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>167684</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228386</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167168</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3ADD17C-8A00-4135-AE50-B224C61709FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9174524" y="5610533"/>
+          <a:ext cx="464562" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>170755</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>227600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>236331</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>339215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C559B1D1-A433-4EA7-850B-3D44BAF563D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9177595" y="5782580"/>
+          <a:ext cx="469436" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>96506</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B4BC72-BA52-4835-B1D6-F34748D2D9ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4563931" y="2516015"/>
+          <a:ext cx="5888155" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>415354</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>193185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>101783</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF015B90-1E72-496E-958A-E70D3957EB9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10229914" y="2684925"/>
+          <a:ext cx="227449" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>377377</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>36837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>148452</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9240CD-8E74-4ED0-9495-7DC89216C018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10191937" y="5988057"/>
+          <a:ext cx="144593" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>439106</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>363570</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>287137</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E44E8F-5362-454E-99F8-0B0820A34794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10222898" y="6124154"/>
+          <a:ext cx="467210" cy="111615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>300356</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>114852</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111513</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF42D456-240E-4340-8047-8E3CB33D97CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11971966" y="6272942"/>
+          <a:ext cx="218727" cy="101839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>279008</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>135760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>147656</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>244928</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072CCCA1-71F8-4D6C-A092-5AB1D7DFE26F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11933126" y="6413691"/>
+          <a:ext cx="272058" cy="109168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>125866</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>237302</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>125131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20050409-3DFB-123D-A103-E45D2190646A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12183395" y="6599167"/>
+          <a:ext cx="111436" cy="101839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>153445</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1501</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>267932</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36D1B03-835F-1D0C-48D3-A8138908F911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12241105" y="6741685"/>
+          <a:ext cx="248107" cy="109168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>247163</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>402860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>108531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E511997-08CE-1950-8181-42F2C788A693}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12289261" y="6958381"/>
+          <a:ext cx="155697" cy="101839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>249632</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>136279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>115548</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>245447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E8541E-DECD-5B82-0A93-C419B2FB71F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12291730" y="7087968"/>
+          <a:ext cx="268778" cy="109168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>2505</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>379769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>204368</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29DD484-E43E-DC25-47F8-9D0A41776D8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12448505" y="7342872"/>
+          <a:ext cx="201863" cy="101839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>54606</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>119701</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>216835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF39F723-316C-55D4-66F2-999B264836DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12500606" y="7453230"/>
+          <a:ext cx="467991" cy="109168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>201618</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>584</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>105571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51FE948-5E2F-EEFD-05FB-2FC99772DF53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12647618" y="7731755"/>
+          <a:ext cx="201863" cy="101839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>399696</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>5563</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>223258</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5E1BD2-6ECB-FBDB-439B-FDB694F6D40C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12858674" y="7839769"/>
+          <a:ext cx="412362" cy="109168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>46520</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>377308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>98147</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA48884-079B-20D8-1D43-9BFAE36EE05A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12906373" y="8109107"/>
+          <a:ext cx="280052" cy="103310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>43115</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>137038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>161544</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>246206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B747C5C2-A0A1-6EED-30DE-82F9C370BBBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13372019" y="8253862"/>
+          <a:ext cx="1739966" cy="109168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>244700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>5826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>383280</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>115771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC95E2E-6727-FBE4-41F7-71E7236AFA88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13114987" y="8499443"/>
+          <a:ext cx="138580" cy="109945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>264300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>124225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>4037</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>233393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77A3693-86DE-913C-7CD9-513B3812833F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13517657" y="8598754"/>
+          <a:ext cx="133028" cy="109168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>342672</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>16712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>159185</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>126657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD8FA96-5A96-9AFA-1812-A9E74ED7C438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13236651" y="8881486"/>
+          <a:ext cx="221000" cy="109945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>288831</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>125260</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>255314</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C87B37-DC89-A760-BAFE-53E528E2634E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13182810" y="9010920"/>
+          <a:ext cx="240916" cy="109168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>158435</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>379435</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0523C9F0-3CFB-857A-AF68-6DD2F2EDA7DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13456901" y="9250482"/>
+          <a:ext cx="221000" cy="109945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>162004</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>136751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>245919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403D5517-D38C-4122-637D-B5A6E1DB054F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13443664" y="9379811"/>
+          <a:ext cx="1411526" cy="109168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>355713</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>17149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>401432</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4381733-7307-2CB8-FD86-C8D4CE690BE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13634805" y="9643611"/>
+          <a:ext cx="45719" cy="109945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>357034</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>145277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>2020</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>255733</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB1B23D-837E-921C-351A-7D378BE20C10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14863331" y="9778412"/>
+          <a:ext cx="49231" cy="110456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>3008</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>5718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>121380</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>115663</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4798D5B8-5E72-154E-FA9E-C8CC2E92F115}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13708893" y="10012868"/>
+          <a:ext cx="118372" cy="109945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>360937</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>69761</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>236242</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C557F27-623D-EC88-F003-9CDFE16E4FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13274691" y="10135032"/>
+          <a:ext cx="113971" cy="109168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>116944</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>10739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>230083</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120684</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4D528B-D686-78E0-CE4D-A48014346110}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13781656" y="10400316"/>
+          <a:ext cx="113139" cy="109945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>150186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>259354</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F389AD74-9D1B-D09F-C0B7-34FFF7724B0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13335000" y="10542099"/>
+          <a:ext cx="107674" cy="109168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>226994</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>345512</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>115800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D7731B-F1FD-8259-C691-1657F7BA3D90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13891706" y="10772053"/>
+          <a:ext cx="118518" cy="114324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>75570</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>175858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>251731</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>285026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2428BD3E-68EB-0BEB-E546-C2F07E0E61F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13325684" y="10962304"/>
+          <a:ext cx="1787022" cy="109168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>289798</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>274404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>5062</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F2C61B-D13E-CED6-7366-D99F80D07C23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15226011" y="11446185"/>
+          <a:ext cx="525363" cy="108480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>290088</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>380363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>5564</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>112563</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85421EA5-FBDF-6911-E982-668D0755411A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13999345" y="11167496"/>
+          <a:ext cx="120077" cy="114324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>37676</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>18413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>157964</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>131613</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B235E83F-7A03-F19A-630E-122EBF73E53E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14153726" y="11553188"/>
+          <a:ext cx="120288" cy="113200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>347861</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>250392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>2381</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>357606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F291CCF-82DB-C440-2333-D0B9A5FDD3FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16085542" y="11778023"/>
+          <a:ext cx="2083395" cy="107214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>278937</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>401828</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121010</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C55048D7-10A9-7DFE-4A0C-593B837AD555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14428016" y="12358788"/>
+          <a:ext cx="122891" cy="113200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>214008</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>107624</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>297337</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{978FCC98-E9C1-D93B-00F3-37DF7C9E3F69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18401489" y="12518310"/>
+          <a:ext cx="298934" cy="107214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>150123</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>5996</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>273014</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119196</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDA2449-8954-B8DD-AE08-DA4378BEDE19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14374123" y="11925853"/>
+          <a:ext cx="122891" cy="113200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>18884</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>220562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>226988</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>327776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BAB990-045D-919D-370D-2ADAC8F18570}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18081106" y="12123284"/>
+          <a:ext cx="208104" cy="107214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>34461</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>206644</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>122597</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3143524-F66E-1627-BB36-84C14D3E0ADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14502129" y="12705092"/>
+          <a:ext cx="172183" cy="113200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>222813</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>392925</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>122342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6924BDB-B1BD-7838-F3F6-97596B09DE06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14690481" y="13089269"/>
+          <a:ext cx="170112" cy="111059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>24046</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>217854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>6969</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>325068</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8977562-8BF4-B4CD-8F49-7FEE064B20B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18974150" y="13650427"/>
+          <a:ext cx="387155" cy="107214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>366032</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>16791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>132192</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65CB1A5-2870-567D-3254-D811648799AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14862393" y="13549177"/>
+          <a:ext cx="170112" cy="111059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>188563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>295777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C9AB269-2196-C27A-2079-FF8828360010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19343370" y="14003623"/>
+          <a:ext cx="148590" cy="107214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>151543</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>24917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>324979</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>135976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E43EF10-0D45-0271-797C-DA57463B7D18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14996432" y="13832639"/>
+          <a:ext cx="173436" cy="111059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>231780</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>396632</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>118345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB4C348-C0C1-E3FD-1A2D-AD84CDE19576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15099539" y="14213769"/>
+          <a:ext cx="164852" cy="111059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>4857</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>169709</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>124848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DA93C5-3FA5-7D58-79A1-7C29F884FF57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15289681" y="14625080"/>
+          <a:ext cx="164852" cy="112239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>146579</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>13334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>311431</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>124393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74D6CB0-2535-57CE-975D-759D0A2FC27D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15439217" y="14972597"/>
+          <a:ext cx="164852" cy="111059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>225533</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>4370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>392460</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>115429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4717CB-FCC1-17B7-36A0-92C8205D70DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15518171" y="15344633"/>
+          <a:ext cx="166927" cy="111059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>250726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>94247</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>357940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE10B920-443F-19D2-EE19-7052A5E0F830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18765052" y="15611042"/>
+          <a:ext cx="148590" cy="107214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>57091</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>23086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>224018</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>134145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D090F48-4A74-405D-161C-EC2C4A9F75DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15658038" y="15931507"/>
+          <a:ext cx="166927" cy="111059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>138163</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>269442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>286752</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>376656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD58B2E-15B1-2DB2-ECA4-F58D7B90EAA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18947531" y="16177863"/>
+          <a:ext cx="148589" cy="107214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>168796</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>335723</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123176</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6D9432-87A8-FE6B-F2DC-F7A77842160A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15950217" y="16119393"/>
+          <a:ext cx="166927" cy="111059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>296166</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>270563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>129886</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>377777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB80038-D294-D83A-DEE7-6991ED43528A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19239371" y="16376472"/>
+          <a:ext cx="237811" cy="107214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>232816</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>15237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>401290</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>126296</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C448125F-DC71-4329-E5BA-9CAE28B110AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16014237" y="16503513"/>
+          <a:ext cx="168474" cy="111059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>9229</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>27269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>177703</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>138328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DBF9EE8-BB26-C818-EAE8-E5CCEAA81F18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16196716" y="16896545"/>
+          <a:ext cx="168474" cy="111059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>126537</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>241527</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>120282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57635FA5-B8F4-201F-ADD2-50D08DCC6E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16268010" y="17246071"/>
+          <a:ext cx="114990" cy="111059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>180469</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>13789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>295459</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>124848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE22FF39-D38C-5350-DDF5-4860B8089BA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16313965" y="17640939"/>
+          <a:ext cx="114990" cy="111059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>291386</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>3999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>2964</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>115058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61545253-5326-A1F9-016D-58071D881AC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16383033" y="18018575"/>
+          <a:ext cx="114990" cy="111059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>402303</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>375209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>113881</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>105268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689065C6-EF9A-05D9-E135-9ACEFAF0AA71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16493950" y="18389785"/>
+          <a:ext cx="114990" cy="111059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>367503</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>228410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>310720</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>335624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A0D890-DF98-5C5A-F8B3-C2481D06F372}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18517406" y="17899905"/>
+          <a:ext cx="347643" cy="107214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>257274</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>268839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>1801</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>376053</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595EC180-ADEE-294D-5FFA-465EBFDE64F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18816295" y="18275999"/>
+          <a:ext cx="141402" cy="107214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>6085</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>279681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>237937</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>4388</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B075C327-DB63-6321-0F78-BE6E41D2285B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18932599" y="18721286"/>
+          <a:ext cx="231852" cy="107214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="02E9FA"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5054,11 +10393,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
     </row>
     <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
@@ -5119,8 +10458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView showGridLines="0" zoomScale="94" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="G12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5169,46 +10508,46 @@
     </row>
     <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="58" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="58" t="s">
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61" t="s">
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="64" t="s">
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="68" t="s">
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="76"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="60"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
@@ -5217,7 +10556,7 @@
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="57"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="14">
         <v>1</v>
       </c>
@@ -5281,16 +10620,16 @@
       <c r="W3" s="14">
         <v>18</v>
       </c>
-      <c r="X3" s="67">
+      <c r="X3" s="51">
         <v>25</v>
       </c>
-      <c r="Y3" s="79">
+      <c r="Y3" s="63">
         <v>2</v>
       </c>
-      <c r="Z3" s="83">
+      <c r="Z3" s="67">
         <v>9</v>
       </c>
-      <c r="AA3" s="76"/>
+      <c r="AA3" s="60"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -5323,10 +10662,10 @@
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="71"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="55"/>
       <c r="AB4" s="25"/>
       <c r="AC4" s="25"/>
       <c r="AD4" s="25"/>
@@ -5359,10 +10698,10 @@
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="72"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="56"/>
       <c r="AB5" s="28"/>
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
@@ -5395,10 +10734,10 @@
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="72"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="56"/>
       <c r="AB6" s="28"/>
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
@@ -5431,10 +10770,10 @@
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="83"/>
-      <c r="AA7" s="72"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="56"/>
       <c r="AB7" s="28"/>
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
@@ -5467,10 +10806,10 @@
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="72"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="56"/>
       <c r="AB8" s="29"/>
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
@@ -5503,10 +10842,10 @@
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="72"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="56"/>
       <c r="AB9" s="30" t="s">
         <v>19</v>
       </c>
@@ -5541,10 +10880,10 @@
       <c r="U10" s="21"/>
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="73"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="57"/>
       <c r="AB10" s="32"/>
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
@@ -5577,10 +10916,10 @@
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="74"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="58"/>
       <c r="AB11" s="34"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="34"/>
@@ -5613,16 +10952,16 @@
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
       <c r="W12" s="21"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="81"/>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="53" t="s">
+      <c r="X12" s="53"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="55"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="84"/>
       <c r="AF12" s="37"/>
     </row>
     <row r="13" spans="1:32" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5651,16 +10990,16 @@
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="81"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="65"/>
       <c r="AB13" s="38"/>
-      <c r="AC13" s="53" t="s">
+      <c r="AC13" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="55"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="84"/>
       <c r="AF13" s="37"/>
     </row>
     <row r="14" spans="1:32" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5689,10 +11028,10 @@
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="74"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="58"/>
       <c r="AB14" s="29"/>
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
@@ -5701,34 +11040,34 @@
     </row>
     <row r="15" spans="1:32" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="88"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="75"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="59"/>
       <c r="AB15" s="41"/>
       <c r="AC15" s="41"/>
       <c r="AD15" s="41"/>
@@ -5736,35 +11075,35 @@
       <c r="AF15" s="41"/>
     </row>
     <row r="16" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="91" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="76"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="60"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
@@ -5772,35 +11111,35 @@
       <c r="AF16" s="6"/>
     </row>
     <row r="17" spans="1:32" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="92" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="76"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="60"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
@@ -5808,35 +11147,35 @@
       <c r="AF17" s="6"/>
     </row>
     <row r="18" spans="1:32" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="93" t="s">
+      <c r="A18" s="54"/>
+      <c r="B18" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="76"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="60"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
@@ -5845,31 +11184,31 @@
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="90"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="82"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="66"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="82"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="66"/>
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="82"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="66"/>
       <c r="Q19" s="41"/>
       <c r="R19" s="41"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="82"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="66"/>
       <c r="U19" s="41"/>
       <c r="V19" s="41"/>
       <c r="W19" s="41"/>
       <c r="X19" s="41"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="82"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="66"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
@@ -6884,6 +12223,3124 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1EE176-352B-4B76-AF9A-660174AD62CB}">
+  <dimension ref="A1:BB51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="AS13" sqref="AS13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" style="5"/>
+    <col min="2" max="2" width="10.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="24" width="5.88671875" style="5"/>
+    <col min="25" max="25" width="7.88671875" style="5" customWidth="1"/>
+    <col min="26" max="26" width="5.88671875" style="5"/>
+    <col min="27" max="27" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="52" width="5.88671875" style="5"/>
+    <col min="53" max="53" width="5.88671875" style="5" customWidth="1"/>
+    <col min="54" max="16384" width="5.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="103"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
+      <c r="AM1" s="106"/>
+      <c r="AN1" s="106"/>
+      <c r="AO1" s="106"/>
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="106"/>
+      <c r="AR1" s="106"/>
+      <c r="AS1" s="106"/>
+      <c r="AT1" s="106"/>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="106"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="106"/>
+      <c r="BA1" s="106"/>
+      <c r="BB1" s="107"/>
+    </row>
+    <row r="2" spans="1:54" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A2" s="108"/>
+      <c r="B2" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="128" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="128" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="136" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="138" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="139"/>
+      <c r="AD2" s="140" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE2" s="140"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="141" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="141"/>
+      <c r="AJ2" s="141"/>
+      <c r="AK2" s="141"/>
+      <c r="AL2" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM2" s="141"/>
+      <c r="AN2" s="141"/>
+      <c r="AO2" s="141"/>
+      <c r="AP2" s="141"/>
+      <c r="AQ2" s="141" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR2" s="141"/>
+      <c r="AS2" s="141"/>
+      <c r="AT2" s="141"/>
+      <c r="AU2" s="141" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV2" s="141"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
+      <c r="AY2" s="96"/>
+      <c r="AZ2" s="96"/>
+      <c r="BA2" s="96"/>
+      <c r="BB2" s="109"/>
+    </row>
+    <row r="3" spans="1:54" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="108"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="142">
+        <v>1</v>
+      </c>
+      <c r="D3" s="142">
+        <v>6</v>
+      </c>
+      <c r="E3" s="142">
+        <v>12</v>
+      </c>
+      <c r="F3" s="143">
+        <v>16</v>
+      </c>
+      <c r="G3" s="143">
+        <v>27</v>
+      </c>
+      <c r="H3" s="143">
+        <v>6</v>
+      </c>
+      <c r="I3" s="143">
+        <v>13</v>
+      </c>
+      <c r="J3" s="143">
+        <v>20</v>
+      </c>
+      <c r="K3" s="144">
+        <v>27</v>
+      </c>
+      <c r="L3" s="142">
+        <v>4</v>
+      </c>
+      <c r="M3" s="142">
+        <v>11</v>
+      </c>
+      <c r="N3" s="142">
+        <v>18</v>
+      </c>
+      <c r="O3" s="144">
+        <v>28</v>
+      </c>
+      <c r="P3" s="142">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="142">
+        <v>7</v>
+      </c>
+      <c r="R3" s="142">
+        <v>14</v>
+      </c>
+      <c r="S3" s="144">
+        <v>21</v>
+      </c>
+      <c r="T3" s="142">
+        <v>30</v>
+      </c>
+      <c r="U3" s="142">
+        <v>4</v>
+      </c>
+      <c r="V3" s="142">
+        <v>11</v>
+      </c>
+      <c r="W3" s="142">
+        <v>18</v>
+      </c>
+      <c r="X3" s="142">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="144">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="145">
+        <v>9</v>
+      </c>
+      <c r="AA3" s="145">
+        <v>16</v>
+      </c>
+      <c r="AB3" s="145">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="145">
+        <v>30</v>
+      </c>
+      <c r="AD3" s="145">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="145">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="145">
+        <v>20</v>
+      </c>
+      <c r="AG3" s="146">
+        <v>27</v>
+      </c>
+      <c r="AH3" s="146">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="146">
+        <v>11</v>
+      </c>
+      <c r="AJ3" s="146">
+        <v>18</v>
+      </c>
+      <c r="AK3" s="146">
+        <v>25</v>
+      </c>
+      <c r="AL3" s="146">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="146">
+        <v>8</v>
+      </c>
+      <c r="AN3" s="146">
+        <v>15</v>
+      </c>
+      <c r="AO3" s="146">
+        <v>22</v>
+      </c>
+      <c r="AP3" s="146">
+        <v>29</v>
+      </c>
+      <c r="AQ3" s="146">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="146">
+        <v>12</v>
+      </c>
+      <c r="AS3" s="146">
+        <v>19</v>
+      </c>
+      <c r="AT3" s="146">
+        <v>26</v>
+      </c>
+      <c r="AU3" s="146">
+        <v>4</v>
+      </c>
+      <c r="AV3" s="146">
+        <v>11</v>
+      </c>
+      <c r="AW3" s="115"/>
+      <c r="AX3" s="122"/>
+      <c r="AY3" s="98"/>
+      <c r="AZ3" s="121"/>
+      <c r="BA3" s="120"/>
+      <c r="BB3" s="116"/>
+    </row>
+    <row r="4" spans="1:54" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="108"/>
+      <c r="B4" s="147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="98"/>
+      <c r="AN4" s="98"/>
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="98"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="98"/>
+      <c r="AT4" s="98"/>
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="98"/>
+      <c r="AW4" s="115"/>
+      <c r="AX4" s="123"/>
+      <c r="AY4" s="123"/>
+      <c r="AZ4" s="124"/>
+      <c r="BA4" s="125"/>
+      <c r="BB4" s="151"/>
+    </row>
+    <row r="5" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="108"/>
+      <c r="B5" s="147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="98"/>
+      <c r="AH5" s="98"/>
+      <c r="AI5" s="98"/>
+      <c r="AJ5" s="98"/>
+      <c r="AK5" s="98"/>
+      <c r="AL5" s="98"/>
+      <c r="AM5" s="98"/>
+      <c r="AN5" s="98"/>
+      <c r="AO5" s="98"/>
+      <c r="AP5" s="98"/>
+      <c r="AQ5" s="98"/>
+      <c r="AR5" s="98"/>
+      <c r="AS5" s="98"/>
+      <c r="AT5" s="98"/>
+      <c r="AU5" s="98"/>
+      <c r="AV5" s="98"/>
+      <c r="AW5" s="115"/>
+      <c r="AX5" s="118"/>
+      <c r="AY5" s="153" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ5" s="154"/>
+      <c r="BA5" s="154"/>
+      <c r="BB5" s="155"/>
+    </row>
+    <row r="6" spans="1:54" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="108"/>
+      <c r="B6" s="147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="99"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="98"/>
+      <c r="AH6" s="98"/>
+      <c r="AI6" s="98"/>
+      <c r="AJ6" s="98"/>
+      <c r="AK6" s="98"/>
+      <c r="AL6" s="98"/>
+      <c r="AM6" s="98"/>
+      <c r="AN6" s="98"/>
+      <c r="AO6" s="98"/>
+      <c r="AP6" s="98"/>
+      <c r="AQ6" s="98"/>
+      <c r="AR6" s="98"/>
+      <c r="AS6" s="98"/>
+      <c r="AT6" s="98"/>
+      <c r="AU6" s="98"/>
+      <c r="AV6" s="98"/>
+      <c r="AW6" s="115"/>
+      <c r="AX6" s="119"/>
+      <c r="AY6" s="156" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ6" s="157"/>
+      <c r="BA6" s="157"/>
+      <c r="BB6" s="158"/>
+    </row>
+    <row r="7" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="108"/>
+      <c r="B7" s="147" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="97"/>
+      <c r="AD7" s="97"/>
+      <c r="AE7" s="97"/>
+      <c r="AF7" s="97"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="98"/>
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="98"/>
+      <c r="AO7" s="98"/>
+      <c r="AP7" s="98"/>
+      <c r="AQ7" s="98"/>
+      <c r="AR7" s="98"/>
+      <c r="AS7" s="98"/>
+      <c r="AT7" s="98"/>
+      <c r="AU7" s="98"/>
+      <c r="AV7" s="98"/>
+      <c r="AW7" s="98"/>
+      <c r="AX7" s="117"/>
+      <c r="AY7" s="117"/>
+      <c r="AZ7" s="117"/>
+      <c r="BA7" s="117"/>
+      <c r="BB7" s="152"/>
+    </row>
+    <row r="8" spans="1:54" ht="31.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="108"/>
+      <c r="B8" s="147" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="97"/>
+      <c r="W8" s="97"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="97"/>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="97"/>
+      <c r="AD8" s="97"/>
+      <c r="AE8" s="97"/>
+      <c r="AF8" s="97"/>
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="98"/>
+      <c r="AL8" s="98"/>
+      <c r="AM8" s="98"/>
+      <c r="AN8" s="98"/>
+      <c r="AO8" s="98"/>
+      <c r="AP8" s="98"/>
+      <c r="AQ8" s="98"/>
+      <c r="AR8" s="98"/>
+      <c r="AS8" s="98"/>
+      <c r="AT8" s="98"/>
+      <c r="AU8" s="98"/>
+      <c r="AV8" s="98"/>
+      <c r="AW8" s="98"/>
+      <c r="AX8" s="98"/>
+      <c r="AY8" s="98"/>
+      <c r="AZ8" s="98"/>
+      <c r="BA8" s="98"/>
+      <c r="BB8" s="110"/>
+    </row>
+    <row r="9" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="108"/>
+      <c r="B9" s="147" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="97"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="97"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="98"/>
+      <c r="AI9" s="98"/>
+      <c r="AJ9" s="98"/>
+      <c r="AK9" s="98"/>
+      <c r="AL9" s="98"/>
+      <c r="AM9" s="98"/>
+      <c r="AN9" s="98"/>
+      <c r="AO9" s="98"/>
+      <c r="AP9" s="98"/>
+      <c r="AQ9" s="98"/>
+      <c r="AR9" s="98"/>
+      <c r="AS9" s="98"/>
+      <c r="AT9" s="98"/>
+      <c r="AU9" s="98"/>
+      <c r="AV9" s="98"/>
+      <c r="AW9" s="98"/>
+      <c r="AX9" s="98"/>
+      <c r="AY9" s="98"/>
+      <c r="AZ9" s="98"/>
+      <c r="BA9" s="98"/>
+      <c r="BB9" s="110"/>
+    </row>
+    <row r="10" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="108"/>
+      <c r="B10" s="147" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="97"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="99"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="97"/>
+      <c r="AC10" s="97"/>
+      <c r="AD10" s="97"/>
+      <c r="AE10" s="97"/>
+      <c r="AF10" s="97"/>
+      <c r="AG10" s="98"/>
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="98"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="98"/>
+      <c r="AL10" s="98"/>
+      <c r="AM10" s="98"/>
+      <c r="AN10" s="98"/>
+      <c r="AO10" s="98"/>
+      <c r="AP10" s="98"/>
+      <c r="AQ10" s="98"/>
+      <c r="AR10" s="98"/>
+      <c r="AS10" s="98"/>
+      <c r="AT10" s="98"/>
+      <c r="AU10" s="98"/>
+      <c r="AV10" s="98"/>
+      <c r="AW10" s="98"/>
+      <c r="AX10" s="98"/>
+      <c r="AY10" s="98"/>
+      <c r="AZ10" s="98"/>
+      <c r="BA10" s="98"/>
+      <c r="BB10" s="110"/>
+    </row>
+    <row r="11" spans="1:54" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="108"/>
+      <c r="B11" s="147" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="98"/>
+      <c r="AH11" s="98"/>
+      <c r="AI11" s="98"/>
+      <c r="AJ11" s="98"/>
+      <c r="AK11" s="98"/>
+      <c r="AL11" s="98"/>
+      <c r="AM11" s="98"/>
+      <c r="AN11" s="98"/>
+      <c r="AO11" s="98"/>
+      <c r="AP11" s="98"/>
+      <c r="AQ11" s="98"/>
+      <c r="AR11" s="98"/>
+      <c r="AS11" s="98"/>
+      <c r="AT11" s="98"/>
+      <c r="AU11" s="98"/>
+      <c r="AV11" s="98"/>
+      <c r="AW11" s="98"/>
+      <c r="AX11" s="98"/>
+      <c r="AY11" s="98"/>
+      <c r="AZ11" s="98"/>
+      <c r="BA11" s="98"/>
+      <c r="BB11" s="110"/>
+    </row>
+    <row r="12" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="108"/>
+      <c r="B12" s="147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="101"/>
+      <c r="AG12" s="98"/>
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="98"/>
+      <c r="AJ12" s="98"/>
+      <c r="AK12" s="98"/>
+      <c r="AL12" s="98"/>
+      <c r="AM12" s="98"/>
+      <c r="AN12" s="98"/>
+      <c r="AO12" s="98"/>
+      <c r="AP12" s="98"/>
+      <c r="AQ12" s="98"/>
+      <c r="AR12" s="98"/>
+      <c r="AS12" s="98"/>
+      <c r="AT12" s="98"/>
+      <c r="AU12" s="98"/>
+      <c r="AV12" s="98"/>
+      <c r="AW12" s="98"/>
+      <c r="AX12" s="98"/>
+      <c r="AY12" s="98"/>
+      <c r="AZ12" s="98"/>
+      <c r="BA12" s="98"/>
+      <c r="BB12" s="110"/>
+    </row>
+    <row r="13" spans="1:54" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="108"/>
+      <c r="B13" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="101"/>
+      <c r="AG13" s="98"/>
+      <c r="AH13" s="98"/>
+      <c r="AI13" s="98"/>
+      <c r="AJ13" s="98"/>
+      <c r="AK13" s="98"/>
+      <c r="AL13" s="98"/>
+      <c r="AM13" s="98"/>
+      <c r="AN13" s="98"/>
+      <c r="AO13" s="98"/>
+      <c r="AP13" s="98"/>
+      <c r="AQ13" s="98"/>
+      <c r="AR13" s="98"/>
+      <c r="AS13" s="98"/>
+      <c r="AT13" s="98"/>
+      <c r="AU13" s="98"/>
+      <c r="AV13" s="98"/>
+      <c r="AW13" s="98"/>
+      <c r="AX13" s="98"/>
+      <c r="AY13" s="98"/>
+      <c r="AZ13" s="98"/>
+      <c r="BA13" s="98"/>
+      <c r="BB13" s="110"/>
+    </row>
+    <row r="14" spans="1:54" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="108"/>
+      <c r="B14" s="147" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="97"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="97"/>
+      <c r="AC14" s="97"/>
+      <c r="AD14" s="97"/>
+      <c r="AE14" s="97"/>
+      <c r="AF14" s="97"/>
+      <c r="AG14" s="98"/>
+      <c r="AH14" s="98"/>
+      <c r="AI14" s="98"/>
+      <c r="AJ14" s="98"/>
+      <c r="AK14" s="98"/>
+      <c r="AL14" s="98"/>
+      <c r="AM14" s="98"/>
+      <c r="AN14" s="98"/>
+      <c r="AO14" s="98"/>
+      <c r="AP14" s="98"/>
+      <c r="AQ14" s="98"/>
+      <c r="AR14" s="98"/>
+      <c r="AS14" s="98"/>
+      <c r="AT14" s="98"/>
+      <c r="AU14" s="98"/>
+      <c r="AV14" s="98"/>
+      <c r="AW14" s="98"/>
+      <c r="AX14" s="98"/>
+      <c r="AY14" s="98"/>
+      <c r="AZ14" s="98"/>
+      <c r="BA14" s="98"/>
+      <c r="BB14" s="110"/>
+    </row>
+    <row r="15" spans="1:54" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="108"/>
+      <c r="B15" s="147" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="97"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="99"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="97"/>
+      <c r="AD15" s="97"/>
+      <c r="AE15" s="97"/>
+      <c r="AF15" s="97"/>
+      <c r="AG15" s="98"/>
+      <c r="AH15" s="98"/>
+      <c r="AI15" s="98"/>
+      <c r="AJ15" s="98"/>
+      <c r="AK15" s="98"/>
+      <c r="AL15" s="98"/>
+      <c r="AM15" s="98"/>
+      <c r="AN15" s="98"/>
+      <c r="AO15" s="98"/>
+      <c r="AP15" s="98"/>
+      <c r="AQ15" s="98"/>
+      <c r="AR15" s="98"/>
+      <c r="AS15" s="98"/>
+      <c r="AT15" s="98"/>
+      <c r="AU15" s="98"/>
+      <c r="AV15" s="98"/>
+      <c r="AW15" s="98"/>
+      <c r="AX15" s="98"/>
+      <c r="AY15" s="98"/>
+      <c r="AZ15" s="98"/>
+      <c r="BA15" s="98"/>
+      <c r="BB15" s="110"/>
+    </row>
+    <row r="16" spans="1:54" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="108"/>
+      <c r="B16" s="147" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="99"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="98"/>
+      <c r="AH16" s="98"/>
+      <c r="AI16" s="98"/>
+      <c r="AJ16" s="98"/>
+      <c r="AK16" s="98"/>
+      <c r="AL16" s="98"/>
+      <c r="AM16" s="98"/>
+      <c r="AN16" s="98"/>
+      <c r="AO16" s="98"/>
+      <c r="AP16" s="98"/>
+      <c r="AQ16" s="98"/>
+      <c r="AR16" s="98"/>
+      <c r="AS16" s="98"/>
+      <c r="AT16" s="98"/>
+      <c r="AU16" s="98"/>
+      <c r="AV16" s="98"/>
+      <c r="AW16" s="98"/>
+      <c r="AX16" s="98"/>
+      <c r="AY16" s="98"/>
+      <c r="AZ16" s="98"/>
+      <c r="BA16" s="98"/>
+      <c r="BB16" s="110"/>
+    </row>
+    <row r="17" spans="1:54" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="108"/>
+      <c r="B17" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="97"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="99"/>
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="97"/>
+      <c r="AB17" s="97"/>
+      <c r="AC17" s="97"/>
+      <c r="AD17" s="97"/>
+      <c r="AE17" s="97"/>
+      <c r="AF17" s="97"/>
+      <c r="AG17" s="98"/>
+      <c r="AH17" s="98"/>
+      <c r="AI17" s="98"/>
+      <c r="AJ17" s="98"/>
+      <c r="AK17" s="98"/>
+      <c r="AL17" s="98"/>
+      <c r="AM17" s="98"/>
+      <c r="AN17" s="98"/>
+      <c r="AO17" s="98"/>
+      <c r="AP17" s="98"/>
+      <c r="AQ17" s="98"/>
+      <c r="AR17" s="98"/>
+      <c r="AS17" s="98"/>
+      <c r="AT17" s="98"/>
+      <c r="AU17" s="98"/>
+      <c r="AV17" s="98"/>
+      <c r="AW17" s="98"/>
+      <c r="AX17" s="98"/>
+      <c r="AY17" s="98"/>
+      <c r="AZ17" s="98"/>
+      <c r="BA17" s="98"/>
+      <c r="BB17" s="110"/>
+    </row>
+    <row r="18" spans="1:54" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="108"/>
+      <c r="B18" s="149" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="97"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="97"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="97"/>
+      <c r="AA18" s="97"/>
+      <c r="AB18" s="97"/>
+      <c r="AC18" s="97"/>
+      <c r="AD18" s="97"/>
+      <c r="AE18" s="97"/>
+      <c r="AF18" s="97"/>
+      <c r="AG18" s="98"/>
+      <c r="AH18" s="98"/>
+      <c r="AI18" s="98"/>
+      <c r="AJ18" s="98"/>
+      <c r="AK18" s="98"/>
+      <c r="AL18" s="98"/>
+      <c r="AM18" s="98"/>
+      <c r="AN18" s="98"/>
+      <c r="AO18" s="98"/>
+      <c r="AP18" s="98"/>
+      <c r="AQ18" s="98"/>
+      <c r="AR18" s="98"/>
+      <c r="AS18" s="98"/>
+      <c r="AT18" s="98"/>
+      <c r="AU18" s="98"/>
+      <c r="AV18" s="98"/>
+      <c r="AW18" s="98"/>
+      <c r="AX18" s="98"/>
+      <c r="AY18" s="98"/>
+      <c r="AZ18" s="98"/>
+      <c r="BA18" s="98"/>
+      <c r="BB18" s="110"/>
+    </row>
+    <row r="19" spans="1:54" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="108"/>
+      <c r="B19" s="147" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="97"/>
+      <c r="V19" s="97"/>
+      <c r="W19" s="97"/>
+      <c r="X19" s="97"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="97"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="97"/>
+      <c r="AC19" s="97"/>
+      <c r="AD19" s="97"/>
+      <c r="AE19" s="97"/>
+      <c r="AF19" s="97"/>
+      <c r="AG19" s="98"/>
+      <c r="AH19" s="98"/>
+      <c r="AI19" s="98"/>
+      <c r="AJ19" s="98"/>
+      <c r="AK19" s="98"/>
+      <c r="AL19" s="98"/>
+      <c r="AM19" s="98"/>
+      <c r="AN19" s="98"/>
+      <c r="AO19" s="98"/>
+      <c r="AP19" s="98"/>
+      <c r="AQ19" s="98"/>
+      <c r="AR19" s="98"/>
+      <c r="AS19" s="98"/>
+      <c r="AT19" s="98"/>
+      <c r="AU19" s="98"/>
+      <c r="AV19" s="98"/>
+      <c r="AW19" s="98"/>
+      <c r="AX19" s="98"/>
+      <c r="AY19" s="98"/>
+      <c r="AZ19" s="98"/>
+      <c r="BA19" s="98"/>
+      <c r="BB19" s="110"/>
+    </row>
+    <row r="20" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="108"/>
+      <c r="B20" s="147" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="97"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="97"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="97"/>
+      <c r="AB20" s="97"/>
+      <c r="AC20" s="97"/>
+      <c r="AD20" s="97"/>
+      <c r="AE20" s="97"/>
+      <c r="AF20" s="97"/>
+      <c r="AG20" s="98"/>
+      <c r="AH20" s="98"/>
+      <c r="AI20" s="98"/>
+      <c r="AJ20" s="98"/>
+      <c r="AK20" s="98"/>
+      <c r="AL20" s="98"/>
+      <c r="AM20" s="98"/>
+      <c r="AN20" s="98"/>
+      <c r="AO20" s="98"/>
+      <c r="AP20" s="98"/>
+      <c r="AQ20" s="98"/>
+      <c r="AR20" s="98"/>
+      <c r="AS20" s="98"/>
+      <c r="AT20" s="98"/>
+      <c r="AU20" s="98"/>
+      <c r="AV20" s="98"/>
+      <c r="AW20" s="98"/>
+      <c r="AX20" s="98"/>
+      <c r="AY20" s="98"/>
+      <c r="AZ20" s="98"/>
+      <c r="BA20" s="98"/>
+      <c r="BB20" s="110"/>
+    </row>
+    <row r="21" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="108"/>
+      <c r="B21" s="147" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="97"/>
+      <c r="AB21" s="97"/>
+      <c r="AC21" s="97"/>
+      <c r="AD21" s="97"/>
+      <c r="AE21" s="97"/>
+      <c r="AF21" s="97"/>
+      <c r="AG21" s="98"/>
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="98"/>
+      <c r="AJ21" s="98"/>
+      <c r="AK21" s="98"/>
+      <c r="AL21" s="98"/>
+      <c r="AM21" s="98"/>
+      <c r="AN21" s="98"/>
+      <c r="AO21" s="98"/>
+      <c r="AP21" s="98"/>
+      <c r="AQ21" s="98"/>
+      <c r="AR21" s="98"/>
+      <c r="AS21" s="98"/>
+      <c r="AT21" s="98"/>
+      <c r="AU21" s="98"/>
+      <c r="AV21" s="98"/>
+      <c r="AW21" s="98"/>
+      <c r="AX21" s="98"/>
+      <c r="AY21" s="98"/>
+      <c r="AZ21" s="98"/>
+      <c r="BA21" s="98"/>
+      <c r="BB21" s="110"/>
+    </row>
+    <row r="22" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="108"/>
+      <c r="B22" s="147" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="97"/>
+      <c r="AA22" s="97"/>
+      <c r="AB22" s="97"/>
+      <c r="AC22" s="97"/>
+      <c r="AD22" s="97"/>
+      <c r="AE22" s="97"/>
+      <c r="AF22" s="97"/>
+      <c r="AG22" s="98"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="98"/>
+      <c r="AJ22" s="98"/>
+      <c r="AK22" s="98"/>
+      <c r="AL22" s="98"/>
+      <c r="AM22" s="98"/>
+      <c r="AN22" s="98"/>
+      <c r="AO22" s="98"/>
+      <c r="AP22" s="98"/>
+      <c r="AQ22" s="98"/>
+      <c r="AR22" s="98"/>
+      <c r="AS22" s="98"/>
+      <c r="AT22" s="98"/>
+      <c r="AU22" s="98"/>
+      <c r="AV22" s="98"/>
+      <c r="AW22" s="98"/>
+      <c r="AX22" s="98"/>
+      <c r="AY22" s="98"/>
+      <c r="AZ22" s="98"/>
+      <c r="BA22" s="98"/>
+      <c r="BB22" s="110"/>
+    </row>
+    <row r="23" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="108"/>
+      <c r="B23" s="147" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="97"/>
+      <c r="V23" s="97"/>
+      <c r="W23" s="97"/>
+      <c r="X23" s="97"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="97"/>
+      <c r="AA23" s="97"/>
+      <c r="AB23" s="97"/>
+      <c r="AC23" s="97"/>
+      <c r="AD23" s="97"/>
+      <c r="AE23" s="97"/>
+      <c r="AF23" s="97"/>
+      <c r="AG23" s="98"/>
+      <c r="AH23" s="98"/>
+      <c r="AI23" s="98"/>
+      <c r="AJ23" s="98"/>
+      <c r="AK23" s="98"/>
+      <c r="AL23" s="98"/>
+      <c r="AM23" s="98"/>
+      <c r="AN23" s="98"/>
+      <c r="AO23" s="98"/>
+      <c r="AP23" s="98"/>
+      <c r="AQ23" s="98"/>
+      <c r="AR23" s="98"/>
+      <c r="AS23" s="98"/>
+      <c r="AT23" s="98"/>
+      <c r="AU23" s="98"/>
+      <c r="AV23" s="98"/>
+      <c r="AW23" s="98"/>
+      <c r="AX23" s="98"/>
+      <c r="AY23" s="98"/>
+      <c r="AZ23" s="98"/>
+      <c r="BA23" s="98"/>
+      <c r="BB23" s="110"/>
+    </row>
+    <row r="24" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="108"/>
+      <c r="B24" s="147" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="97"/>
+      <c r="V24" s="97"/>
+      <c r="W24" s="97"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="97"/>
+      <c r="AA24" s="97"/>
+      <c r="AB24" s="97"/>
+      <c r="AC24" s="97"/>
+      <c r="AD24" s="97"/>
+      <c r="AE24" s="97"/>
+      <c r="AF24" s="97"/>
+      <c r="AG24" s="98"/>
+      <c r="AH24" s="98"/>
+      <c r="AI24" s="98"/>
+      <c r="AJ24" s="98"/>
+      <c r="AK24" s="98"/>
+      <c r="AL24" s="98"/>
+      <c r="AM24" s="98"/>
+      <c r="AN24" s="98"/>
+      <c r="AO24" s="98"/>
+      <c r="AP24" s="98"/>
+      <c r="AQ24" s="98"/>
+      <c r="AR24" s="98"/>
+      <c r="AS24" s="98"/>
+      <c r="AT24" s="98"/>
+      <c r="AU24" s="98"/>
+      <c r="AV24" s="98"/>
+      <c r="AW24" s="98"/>
+      <c r="AX24" s="98"/>
+      <c r="AY24" s="98"/>
+      <c r="AZ24" s="98"/>
+      <c r="BA24" s="98"/>
+      <c r="BB24" s="110"/>
+    </row>
+    <row r="25" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="108"/>
+      <c r="B25" s="147" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="97"/>
+      <c r="U25" s="97"/>
+      <c r="V25" s="97"/>
+      <c r="W25" s="97"/>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="97"/>
+      <c r="AA25" s="97"/>
+      <c r="AB25" s="97"/>
+      <c r="AC25" s="97"/>
+      <c r="AD25" s="97"/>
+      <c r="AE25" s="97"/>
+      <c r="AF25" s="97"/>
+      <c r="AG25" s="98"/>
+      <c r="AH25" s="98"/>
+      <c r="AI25" s="98"/>
+      <c r="AJ25" s="98"/>
+      <c r="AK25" s="98"/>
+      <c r="AL25" s="98"/>
+      <c r="AM25" s="98"/>
+      <c r="AN25" s="98"/>
+      <c r="AO25" s="98"/>
+      <c r="AP25" s="98"/>
+      <c r="AQ25" s="98"/>
+      <c r="AR25" s="98"/>
+      <c r="AS25" s="98"/>
+      <c r="AT25" s="98"/>
+      <c r="AU25" s="98"/>
+      <c r="AV25" s="98"/>
+      <c r="AW25" s="98"/>
+      <c r="AX25" s="98"/>
+      <c r="AY25" s="98"/>
+      <c r="AZ25" s="98"/>
+      <c r="BA25" s="98"/>
+      <c r="BB25" s="110"/>
+    </row>
+    <row r="26" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="108"/>
+      <c r="B26" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="97"/>
+      <c r="V26" s="97"/>
+      <c r="W26" s="97"/>
+      <c r="X26" s="97"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="97"/>
+      <c r="AA26" s="97"/>
+      <c r="AB26" s="97"/>
+      <c r="AC26" s="97"/>
+      <c r="AD26" s="97"/>
+      <c r="AE26" s="97"/>
+      <c r="AF26" s="97"/>
+      <c r="AG26" s="98"/>
+      <c r="AH26" s="98"/>
+      <c r="AI26" s="98"/>
+      <c r="AJ26" s="98"/>
+      <c r="AK26" s="98"/>
+      <c r="AL26" s="98"/>
+      <c r="AM26" s="98"/>
+      <c r="AN26" s="98"/>
+      <c r="AO26" s="98"/>
+      <c r="AP26" s="98"/>
+      <c r="AQ26" s="98"/>
+      <c r="AR26" s="98"/>
+      <c r="AS26" s="98"/>
+      <c r="AT26" s="98"/>
+      <c r="AU26" s="98"/>
+      <c r="AV26" s="98"/>
+      <c r="AW26" s="98"/>
+      <c r="AX26" s="98"/>
+      <c r="AY26" s="98"/>
+      <c r="AZ26" s="98"/>
+      <c r="BA26" s="98"/>
+      <c r="BB26" s="110"/>
+    </row>
+    <row r="27" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="108"/>
+      <c r="B27" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="97"/>
+      <c r="V27" s="97"/>
+      <c r="W27" s="97"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="99"/>
+      <c r="Z27" s="97"/>
+      <c r="AA27" s="97"/>
+      <c r="AB27" s="97"/>
+      <c r="AC27" s="97"/>
+      <c r="AD27" s="97"/>
+      <c r="AE27" s="97"/>
+      <c r="AF27" s="97"/>
+      <c r="AG27" s="98"/>
+      <c r="AH27" s="98"/>
+      <c r="AI27" s="98"/>
+      <c r="AJ27" s="98"/>
+      <c r="AK27" s="98"/>
+      <c r="AL27" s="98"/>
+      <c r="AM27" s="98"/>
+      <c r="AN27" s="98"/>
+      <c r="AO27" s="98"/>
+      <c r="AP27" s="98"/>
+      <c r="AQ27" s="98"/>
+      <c r="AR27" s="98"/>
+      <c r="AS27" s="98"/>
+      <c r="AT27" s="98"/>
+      <c r="AU27" s="98"/>
+      <c r="AV27" s="98"/>
+      <c r="AW27" s="98"/>
+      <c r="AX27" s="98"/>
+      <c r="AY27" s="98"/>
+      <c r="AZ27" s="98"/>
+      <c r="BA27" s="98"/>
+      <c r="BB27" s="110"/>
+    </row>
+    <row r="28" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="108"/>
+      <c r="B28" s="147" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="97"/>
+      <c r="U28" s="97"/>
+      <c r="V28" s="97"/>
+      <c r="W28" s="97"/>
+      <c r="X28" s="97"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="97"/>
+      <c r="AA28" s="97"/>
+      <c r="AB28" s="97"/>
+      <c r="AC28" s="97"/>
+      <c r="AD28" s="97"/>
+      <c r="AE28" s="97"/>
+      <c r="AF28" s="97"/>
+      <c r="AG28" s="98"/>
+      <c r="AH28" s="98"/>
+      <c r="AI28" s="98"/>
+      <c r="AJ28" s="98"/>
+      <c r="AK28" s="98"/>
+      <c r="AL28" s="98"/>
+      <c r="AM28" s="98"/>
+      <c r="AN28" s="98"/>
+      <c r="AO28" s="98"/>
+      <c r="AP28" s="98"/>
+      <c r="AQ28" s="98"/>
+      <c r="AR28" s="98"/>
+      <c r="AS28" s="98"/>
+      <c r="AT28" s="98"/>
+      <c r="AU28" s="98"/>
+      <c r="AV28" s="98"/>
+      <c r="AW28" s="98"/>
+      <c r="AX28" s="98"/>
+      <c r="AY28" s="98"/>
+      <c r="AZ28" s="98"/>
+      <c r="BA28" s="98"/>
+      <c r="BB28" s="110"/>
+    </row>
+    <row r="29" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="108"/>
+      <c r="B29" s="147" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="97"/>
+      <c r="U29" s="97"/>
+      <c r="V29" s="97"/>
+      <c r="W29" s="97"/>
+      <c r="X29" s="97"/>
+      <c r="Y29" s="99"/>
+      <c r="Z29" s="97"/>
+      <c r="AA29" s="97"/>
+      <c r="AB29" s="97"/>
+      <c r="AC29" s="97"/>
+      <c r="AD29" s="97"/>
+      <c r="AE29" s="97"/>
+      <c r="AF29" s="97"/>
+      <c r="AG29" s="98"/>
+      <c r="AH29" s="98"/>
+      <c r="AI29" s="98"/>
+      <c r="AJ29" s="98"/>
+      <c r="AK29" s="98"/>
+      <c r="AL29" s="98"/>
+      <c r="AM29" s="98"/>
+      <c r="AN29" s="98"/>
+      <c r="AO29" s="98"/>
+      <c r="AP29" s="98"/>
+      <c r="AQ29" s="98"/>
+      <c r="AR29" s="98"/>
+      <c r="AS29" s="98"/>
+      <c r="AT29" s="98"/>
+      <c r="AU29" s="98"/>
+      <c r="AV29" s="98"/>
+      <c r="AW29" s="98"/>
+      <c r="AX29" s="98"/>
+      <c r="AY29" s="98"/>
+      <c r="AZ29" s="98"/>
+      <c r="BA29" s="98"/>
+      <c r="BB29" s="110"/>
+    </row>
+    <row r="30" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="108"/>
+      <c r="B30" s="147" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="97"/>
+      <c r="U30" s="97"/>
+      <c r="V30" s="97"/>
+      <c r="W30" s="97"/>
+      <c r="X30" s="97"/>
+      <c r="Y30" s="99"/>
+      <c r="Z30" s="97"/>
+      <c r="AA30" s="97"/>
+      <c r="AB30" s="97"/>
+      <c r="AC30" s="97"/>
+      <c r="AD30" s="97"/>
+      <c r="AE30" s="97"/>
+      <c r="AF30" s="97"/>
+      <c r="AG30" s="98"/>
+      <c r="AH30" s="98"/>
+      <c r="AI30" s="98"/>
+      <c r="AJ30" s="98"/>
+      <c r="AK30" s="98"/>
+      <c r="AL30" s="98"/>
+      <c r="AM30" s="98"/>
+      <c r="AN30" s="98"/>
+      <c r="AO30" s="98"/>
+      <c r="AP30" s="98"/>
+      <c r="AQ30" s="98"/>
+      <c r="AR30" s="98"/>
+      <c r="AS30" s="98"/>
+      <c r="AT30" s="98"/>
+      <c r="AU30" s="98"/>
+      <c r="AV30" s="98"/>
+      <c r="AW30" s="98"/>
+      <c r="AX30" s="98"/>
+      <c r="AY30" s="98"/>
+      <c r="AZ30" s="98"/>
+      <c r="BA30" s="98"/>
+      <c r="BB30" s="110"/>
+    </row>
+    <row r="31" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="108"/>
+      <c r="B31" s="147" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="97"/>
+      <c r="S31" s="99"/>
+      <c r="T31" s="97"/>
+      <c r="U31" s="97"/>
+      <c r="V31" s="97"/>
+      <c r="W31" s="97"/>
+      <c r="X31" s="97"/>
+      <c r="Y31" s="99"/>
+      <c r="Z31" s="97"/>
+      <c r="AA31" s="97"/>
+      <c r="AB31" s="97"/>
+      <c r="AC31" s="97"/>
+      <c r="AD31" s="97"/>
+      <c r="AE31" s="97"/>
+      <c r="AF31" s="97"/>
+      <c r="AG31" s="98"/>
+      <c r="AH31" s="98"/>
+      <c r="AI31" s="98"/>
+      <c r="AJ31" s="98"/>
+      <c r="AK31" s="98"/>
+      <c r="AL31" s="98"/>
+      <c r="AM31" s="98"/>
+      <c r="AN31" s="98"/>
+      <c r="AO31" s="98"/>
+      <c r="AP31" s="98"/>
+      <c r="AQ31" s="98"/>
+      <c r="AR31" s="98"/>
+      <c r="AS31" s="98"/>
+      <c r="AT31" s="98"/>
+      <c r="AU31" s="98"/>
+      <c r="AV31" s="98"/>
+      <c r="AW31" s="98"/>
+      <c r="AX31" s="98"/>
+      <c r="AY31" s="98"/>
+      <c r="AZ31" s="98"/>
+      <c r="BA31" s="98"/>
+      <c r="BB31" s="110"/>
+    </row>
+    <row r="32" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="108"/>
+      <c r="B32" s="148" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="97"/>
+      <c r="U32" s="97"/>
+      <c r="V32" s="97"/>
+      <c r="W32" s="97"/>
+      <c r="X32" s="97"/>
+      <c r="Y32" s="99"/>
+      <c r="Z32" s="97"/>
+      <c r="AA32" s="97"/>
+      <c r="AB32" s="97"/>
+      <c r="AC32" s="97"/>
+      <c r="AD32" s="97"/>
+      <c r="AE32" s="97"/>
+      <c r="AF32" s="97"/>
+      <c r="AG32" s="98"/>
+      <c r="AH32" s="98"/>
+      <c r="AI32" s="98"/>
+      <c r="AJ32" s="98"/>
+      <c r="AK32" s="98"/>
+      <c r="AL32" s="98"/>
+      <c r="AM32" s="98"/>
+      <c r="AN32" s="98"/>
+      <c r="AO32" s="98"/>
+      <c r="AP32" s="98"/>
+      <c r="AQ32" s="98"/>
+      <c r="AR32" s="98"/>
+      <c r="AS32" s="98"/>
+      <c r="AT32" s="98"/>
+      <c r="AU32" s="98"/>
+      <c r="AV32" s="98"/>
+      <c r="AW32" s="98"/>
+      <c r="AX32" s="98"/>
+      <c r="AY32" s="98"/>
+      <c r="AZ32" s="98"/>
+      <c r="BA32" s="98"/>
+      <c r="BB32" s="110"/>
+    </row>
+    <row r="33" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="108"/>
+      <c r="B33" s="149" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="97"/>
+      <c r="N33" s="97"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="99"/>
+      <c r="T33" s="97"/>
+      <c r="U33" s="97"/>
+      <c r="V33" s="97"/>
+      <c r="W33" s="97"/>
+      <c r="X33" s="97"/>
+      <c r="Y33" s="99"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="97"/>
+      <c r="AB33" s="97"/>
+      <c r="AC33" s="97"/>
+      <c r="AD33" s="97"/>
+      <c r="AE33" s="97"/>
+      <c r="AF33" s="97"/>
+      <c r="AG33" s="98"/>
+      <c r="AH33" s="98"/>
+      <c r="AI33" s="98"/>
+      <c r="AJ33" s="98"/>
+      <c r="AK33" s="98"/>
+      <c r="AL33" s="98"/>
+      <c r="AM33" s="98"/>
+      <c r="AN33" s="98"/>
+      <c r="AO33" s="98"/>
+      <c r="AP33" s="98"/>
+      <c r="AQ33" s="98"/>
+      <c r="AR33" s="98"/>
+      <c r="AS33" s="98"/>
+      <c r="AT33" s="98"/>
+      <c r="AU33" s="98"/>
+      <c r="AV33" s="98"/>
+      <c r="AW33" s="98"/>
+      <c r="AX33" s="98"/>
+      <c r="AY33" s="98"/>
+      <c r="AZ33" s="98"/>
+      <c r="BA33" s="98"/>
+      <c r="BB33" s="110"/>
+    </row>
+    <row r="34" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="108"/>
+      <c r="B34" s="147" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="97"/>
+      <c r="W34" s="97"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="99"/>
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="97"/>
+      <c r="AB34" s="97"/>
+      <c r="AC34" s="97"/>
+      <c r="AD34" s="97"/>
+      <c r="AE34" s="97"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="98"/>
+      <c r="AH34" s="98"/>
+      <c r="AI34" s="98"/>
+      <c r="AJ34" s="98"/>
+      <c r="AK34" s="98"/>
+      <c r="AL34" s="98"/>
+      <c r="AM34" s="98"/>
+      <c r="AN34" s="98"/>
+      <c r="AO34" s="98"/>
+      <c r="AP34" s="98"/>
+      <c r="AQ34" s="98"/>
+      <c r="AR34" s="98"/>
+      <c r="AS34" s="98"/>
+      <c r="AT34" s="98"/>
+      <c r="AU34" s="98"/>
+      <c r="AV34" s="98"/>
+      <c r="AW34" s="98"/>
+      <c r="AX34" s="98"/>
+      <c r="AY34" s="98"/>
+      <c r="AZ34" s="98"/>
+      <c r="BA34" s="98"/>
+      <c r="BB34" s="110"/>
+    </row>
+    <row r="35" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="108"/>
+      <c r="B35" s="147" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97"/>
+      <c r="N35" s="97"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="97"/>
+      <c r="S35" s="99"/>
+      <c r="T35" s="97"/>
+      <c r="U35" s="97"/>
+      <c r="V35" s="97"/>
+      <c r="W35" s="97"/>
+      <c r="X35" s="97"/>
+      <c r="Y35" s="99"/>
+      <c r="Z35" s="97"/>
+      <c r="AA35" s="97"/>
+      <c r="AB35" s="97"/>
+      <c r="AC35" s="97"/>
+      <c r="AD35" s="97"/>
+      <c r="AE35" s="97"/>
+      <c r="AF35" s="97"/>
+      <c r="AG35" s="98"/>
+      <c r="AH35" s="98"/>
+      <c r="AI35" s="98"/>
+      <c r="AJ35" s="98"/>
+      <c r="AK35" s="98"/>
+      <c r="AL35" s="98"/>
+      <c r="AM35" s="98"/>
+      <c r="AN35" s="98"/>
+      <c r="AO35" s="98"/>
+      <c r="AP35" s="98"/>
+      <c r="AQ35" s="98"/>
+      <c r="AR35" s="98"/>
+      <c r="AS35" s="98"/>
+      <c r="AT35" s="98"/>
+      <c r="AU35" s="98"/>
+      <c r="AV35" s="98"/>
+      <c r="AW35" s="98"/>
+      <c r="AX35" s="98"/>
+      <c r="AY35" s="98"/>
+      <c r="AZ35" s="98"/>
+      <c r="BA35" s="98"/>
+      <c r="BB35" s="110"/>
+    </row>
+    <row r="36" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="108"/>
+      <c r="B36" s="147" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="97"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="97"/>
+      <c r="U36" s="97"/>
+      <c r="V36" s="97"/>
+      <c r="W36" s="97"/>
+      <c r="X36" s="97"/>
+      <c r="Y36" s="99"/>
+      <c r="Z36" s="97"/>
+      <c r="AA36" s="97"/>
+      <c r="AB36" s="97"/>
+      <c r="AC36" s="97"/>
+      <c r="AD36" s="97"/>
+      <c r="AE36" s="97"/>
+      <c r="AF36" s="97"/>
+      <c r="AG36" s="98"/>
+      <c r="AH36" s="98"/>
+      <c r="AI36" s="98"/>
+      <c r="AJ36" s="98"/>
+      <c r="AK36" s="98"/>
+      <c r="AL36" s="98"/>
+      <c r="AM36" s="98"/>
+      <c r="AN36" s="98"/>
+      <c r="AO36" s="98"/>
+      <c r="AP36" s="98"/>
+      <c r="AQ36" s="98"/>
+      <c r="AR36" s="98"/>
+      <c r="AS36" s="98"/>
+      <c r="AT36" s="98"/>
+      <c r="AU36" s="98"/>
+      <c r="AV36" s="98"/>
+      <c r="AW36" s="98"/>
+      <c r="AX36" s="98"/>
+      <c r="AY36" s="98"/>
+      <c r="AZ36" s="98"/>
+      <c r="BA36" s="98"/>
+      <c r="BB36" s="110"/>
+    </row>
+    <row r="37" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="108"/>
+      <c r="B37" s="147" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="97"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="97"/>
+      <c r="R37" s="97"/>
+      <c r="S37" s="99"/>
+      <c r="T37" s="97"/>
+      <c r="U37" s="97"/>
+      <c r="V37" s="97"/>
+      <c r="W37" s="97"/>
+      <c r="X37" s="97"/>
+      <c r="Y37" s="99"/>
+      <c r="Z37" s="97"/>
+      <c r="AA37" s="97"/>
+      <c r="AB37" s="97"/>
+      <c r="AC37" s="97"/>
+      <c r="AD37" s="97"/>
+      <c r="AE37" s="97"/>
+      <c r="AF37" s="97"/>
+      <c r="AG37" s="98"/>
+      <c r="AH37" s="98"/>
+      <c r="AI37" s="98"/>
+      <c r="AJ37" s="98"/>
+      <c r="AK37" s="98"/>
+      <c r="AL37" s="98"/>
+      <c r="AM37" s="98"/>
+      <c r="AN37" s="98"/>
+      <c r="AO37" s="98"/>
+      <c r="AP37" s="98"/>
+      <c r="AQ37" s="98"/>
+      <c r="AR37" s="98"/>
+      <c r="AS37" s="98"/>
+      <c r="AT37" s="98"/>
+      <c r="AU37" s="98"/>
+      <c r="AV37" s="98"/>
+      <c r="AW37" s="98"/>
+      <c r="AX37" s="98"/>
+      <c r="AY37" s="98"/>
+      <c r="AZ37" s="98"/>
+      <c r="BA37" s="98"/>
+      <c r="BB37" s="110"/>
+    </row>
+    <row r="38" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="108"/>
+      <c r="B38" s="147" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="99"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="97"/>
+      <c r="R38" s="97"/>
+      <c r="S38" s="99"/>
+      <c r="T38" s="97"/>
+      <c r="U38" s="97"/>
+      <c r="V38" s="97"/>
+      <c r="W38" s="97"/>
+      <c r="X38" s="97"/>
+      <c r="Y38" s="99"/>
+      <c r="Z38" s="97"/>
+      <c r="AA38" s="97"/>
+      <c r="AB38" s="97"/>
+      <c r="AC38" s="97"/>
+      <c r="AD38" s="97"/>
+      <c r="AE38" s="97"/>
+      <c r="AF38" s="97"/>
+      <c r="AG38" s="98"/>
+      <c r="AH38" s="98"/>
+      <c r="AI38" s="98"/>
+      <c r="AJ38" s="98"/>
+      <c r="AK38" s="98"/>
+      <c r="AL38" s="98"/>
+      <c r="AM38" s="98"/>
+      <c r="AN38" s="98"/>
+      <c r="AO38" s="98"/>
+      <c r="AP38" s="98"/>
+      <c r="AQ38" s="98"/>
+      <c r="AR38" s="98"/>
+      <c r="AS38" s="98"/>
+      <c r="AT38" s="98"/>
+      <c r="AU38" s="98"/>
+      <c r="AV38" s="98"/>
+      <c r="AW38" s="98"/>
+      <c r="AX38" s="98"/>
+      <c r="AY38" s="98"/>
+      <c r="AZ38" s="98"/>
+      <c r="BA38" s="98"/>
+      <c r="BB38" s="110"/>
+    </row>
+    <row r="39" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="108"/>
+      <c r="B39" s="147" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="97"/>
+      <c r="M39" s="97"/>
+      <c r="N39" s="97"/>
+      <c r="O39" s="99"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="97"/>
+      <c r="R39" s="97"/>
+      <c r="S39" s="99"/>
+      <c r="T39" s="97"/>
+      <c r="U39" s="102"/>
+      <c r="V39" s="97"/>
+      <c r="W39" s="97"/>
+      <c r="X39" s="97"/>
+      <c r="Y39" s="99"/>
+      <c r="Z39" s="97"/>
+      <c r="AA39" s="97"/>
+      <c r="AB39" s="97"/>
+      <c r="AC39" s="97"/>
+      <c r="AD39" s="97"/>
+      <c r="AE39" s="97"/>
+      <c r="AF39" s="97"/>
+      <c r="AG39" s="98"/>
+      <c r="AH39" s="98"/>
+      <c r="AI39" s="98"/>
+      <c r="AJ39" s="98"/>
+      <c r="AK39" s="98"/>
+      <c r="AL39" s="98"/>
+      <c r="AM39" s="98"/>
+      <c r="AN39" s="98"/>
+      <c r="AO39" s="98"/>
+      <c r="AP39" s="98"/>
+      <c r="AQ39" s="98"/>
+      <c r="AR39" s="98"/>
+      <c r="AS39" s="98"/>
+      <c r="AT39" s="98"/>
+      <c r="AU39" s="98"/>
+      <c r="AV39" s="98"/>
+      <c r="AW39" s="98"/>
+      <c r="AX39" s="98"/>
+      <c r="AY39" s="98"/>
+      <c r="AZ39" s="98"/>
+      <c r="BA39" s="98"/>
+      <c r="BB39" s="110"/>
+    </row>
+    <row r="40" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="108"/>
+      <c r="B40" s="147" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="97"/>
+      <c r="M40" s="97"/>
+      <c r="N40" s="97"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="97"/>
+      <c r="Q40" s="97"/>
+      <c r="R40" s="97"/>
+      <c r="S40" s="99"/>
+      <c r="T40" s="97"/>
+      <c r="U40" s="102"/>
+      <c r="V40" s="97"/>
+      <c r="W40" s="97"/>
+      <c r="X40" s="97"/>
+      <c r="Y40" s="99"/>
+      <c r="Z40" s="97"/>
+      <c r="AA40" s="97"/>
+      <c r="AB40" s="97"/>
+      <c r="AC40" s="97"/>
+      <c r="AD40" s="97"/>
+      <c r="AE40" s="97"/>
+      <c r="AF40" s="97"/>
+      <c r="AG40" s="98"/>
+      <c r="AH40" s="98"/>
+      <c r="AI40" s="98"/>
+      <c r="AJ40" s="98"/>
+      <c r="AK40" s="98"/>
+      <c r="AL40" s="98"/>
+      <c r="AM40" s="98"/>
+      <c r="AN40" s="98"/>
+      <c r="AO40" s="98"/>
+      <c r="AP40" s="98"/>
+      <c r="AQ40" s="98"/>
+      <c r="AR40" s="98"/>
+      <c r="AS40" s="98"/>
+      <c r="AT40" s="98"/>
+      <c r="AU40" s="98"/>
+      <c r="AV40" s="98"/>
+      <c r="AW40" s="98"/>
+      <c r="AX40" s="98"/>
+      <c r="AY40" s="98"/>
+      <c r="AZ40" s="98"/>
+      <c r="BA40" s="98"/>
+      <c r="BB40" s="110"/>
+    </row>
+    <row r="41" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="108"/>
+      <c r="B41" s="147" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="97"/>
+      <c r="M41" s="97"/>
+      <c r="N41" s="97"/>
+      <c r="O41" s="99"/>
+      <c r="P41" s="97"/>
+      <c r="Q41" s="97"/>
+      <c r="R41" s="97"/>
+      <c r="S41" s="99"/>
+      <c r="T41" s="97"/>
+      <c r="U41" s="97"/>
+      <c r="V41" s="97"/>
+      <c r="W41" s="97"/>
+      <c r="X41" s="97"/>
+      <c r="Y41" s="99"/>
+      <c r="Z41" s="97"/>
+      <c r="AA41" s="97"/>
+      <c r="AB41" s="97"/>
+      <c r="AC41" s="97"/>
+      <c r="AD41" s="97"/>
+      <c r="AE41" s="97"/>
+      <c r="AF41" s="97"/>
+      <c r="AG41" s="98"/>
+      <c r="AH41" s="98"/>
+      <c r="AI41" s="98"/>
+      <c r="AJ41" s="98"/>
+      <c r="AK41" s="98"/>
+      <c r="AL41" s="98"/>
+      <c r="AM41" s="98"/>
+      <c r="AN41" s="98"/>
+      <c r="AO41" s="98"/>
+      <c r="AP41" s="98"/>
+      <c r="AQ41" s="98"/>
+      <c r="AR41" s="98"/>
+      <c r="AS41" s="98"/>
+      <c r="AT41" s="98"/>
+      <c r="AU41" s="98"/>
+      <c r="AV41" s="98"/>
+      <c r="AW41" s="98"/>
+      <c r="AX41" s="98"/>
+      <c r="AY41" s="98"/>
+      <c r="AZ41" s="98"/>
+      <c r="BA41" s="98"/>
+      <c r="BB41" s="110"/>
+    </row>
+    <row r="42" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="108"/>
+      <c r="B42" s="147" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="97"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="97"/>
+      <c r="O42" s="99"/>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="97"/>
+      <c r="R42" s="97"/>
+      <c r="S42" s="99"/>
+      <c r="T42" s="97"/>
+      <c r="U42" s="97"/>
+      <c r="V42" s="97"/>
+      <c r="W42" s="97"/>
+      <c r="X42" s="97"/>
+      <c r="Y42" s="99"/>
+      <c r="Z42" s="97"/>
+      <c r="AA42" s="97"/>
+      <c r="AB42" s="97"/>
+      <c r="AC42" s="97"/>
+      <c r="AD42" s="97"/>
+      <c r="AE42" s="97"/>
+      <c r="AF42" s="97"/>
+      <c r="AG42" s="98"/>
+      <c r="AH42" s="98"/>
+      <c r="AI42" s="98"/>
+      <c r="AJ42" s="98"/>
+      <c r="AK42" s="98"/>
+      <c r="AL42" s="98"/>
+      <c r="AM42" s="98"/>
+      <c r="AN42" s="98"/>
+      <c r="AO42" s="98"/>
+      <c r="AP42" s="98"/>
+      <c r="AQ42" s="98"/>
+      <c r="AR42" s="98"/>
+      <c r="AS42" s="98"/>
+      <c r="AT42" s="98"/>
+      <c r="AU42" s="98"/>
+      <c r="AV42" s="98"/>
+      <c r="AW42" s="98"/>
+      <c r="AX42" s="98"/>
+      <c r="AY42" s="98"/>
+      <c r="AZ42" s="98"/>
+      <c r="BA42" s="98"/>
+      <c r="BB42" s="110"/>
+    </row>
+    <row r="43" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="108"/>
+      <c r="B43" s="147" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+      <c r="N43" s="97"/>
+      <c r="O43" s="99"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="99"/>
+      <c r="T43" s="97"/>
+      <c r="U43" s="97"/>
+      <c r="V43" s="97"/>
+      <c r="W43" s="97"/>
+      <c r="X43" s="97"/>
+      <c r="Y43" s="99"/>
+      <c r="Z43" s="97"/>
+      <c r="AA43" s="97"/>
+      <c r="AB43" s="97"/>
+      <c r="AC43" s="97"/>
+      <c r="AD43" s="97"/>
+      <c r="AE43" s="97"/>
+      <c r="AF43" s="97"/>
+      <c r="AG43" s="98"/>
+      <c r="AH43" s="98"/>
+      <c r="AI43" s="98"/>
+      <c r="AJ43" s="98"/>
+      <c r="AK43" s="98"/>
+      <c r="AL43" s="98"/>
+      <c r="AM43" s="98"/>
+      <c r="AN43" s="98"/>
+      <c r="AO43" s="98"/>
+      <c r="AP43" s="98"/>
+      <c r="AQ43" s="98"/>
+      <c r="AR43" s="98"/>
+      <c r="AS43" s="98"/>
+      <c r="AT43" s="98"/>
+      <c r="AU43" s="98"/>
+      <c r="AV43" s="98"/>
+      <c r="AW43" s="98"/>
+      <c r="AX43" s="98"/>
+      <c r="AY43" s="98"/>
+      <c r="AZ43" s="98"/>
+      <c r="BA43" s="98"/>
+      <c r="BB43" s="110"/>
+    </row>
+    <row r="44" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="108"/>
+      <c r="B44" s="147" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="97"/>
+      <c r="S44" s="99"/>
+      <c r="T44" s="97"/>
+      <c r="U44" s="97"/>
+      <c r="V44" s="97"/>
+      <c r="W44" s="97"/>
+      <c r="X44" s="97"/>
+      <c r="Y44" s="99"/>
+      <c r="Z44" s="97"/>
+      <c r="AA44" s="97"/>
+      <c r="AB44" s="97"/>
+      <c r="AC44" s="97"/>
+      <c r="AD44" s="97"/>
+      <c r="AE44" s="97"/>
+      <c r="AF44" s="97"/>
+      <c r="AG44" s="98"/>
+      <c r="AH44" s="98"/>
+      <c r="AI44" s="98"/>
+      <c r="AJ44" s="98"/>
+      <c r="AK44" s="98"/>
+      <c r="AL44" s="98"/>
+      <c r="AM44" s="98"/>
+      <c r="AN44" s="98"/>
+      <c r="AO44" s="98"/>
+      <c r="AP44" s="98"/>
+      <c r="AQ44" s="98"/>
+      <c r="AR44" s="98"/>
+      <c r="AS44" s="98"/>
+      <c r="AT44" s="98"/>
+      <c r="AU44" s="98"/>
+      <c r="AV44" s="98"/>
+      <c r="AW44" s="98"/>
+      <c r="AX44" s="98"/>
+      <c r="AY44" s="98"/>
+      <c r="AZ44" s="98"/>
+      <c r="BA44" s="98"/>
+      <c r="BB44" s="110"/>
+    </row>
+    <row r="45" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="108"/>
+      <c r="B45" s="147" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="99"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="97"/>
+      <c r="S45" s="99"/>
+      <c r="T45" s="97"/>
+      <c r="U45" s="97"/>
+      <c r="V45" s="97"/>
+      <c r="W45" s="97"/>
+      <c r="X45" s="97"/>
+      <c r="Y45" s="99"/>
+      <c r="Z45" s="97"/>
+      <c r="AA45" s="97"/>
+      <c r="AB45" s="97"/>
+      <c r="AC45" s="97"/>
+      <c r="AD45" s="97"/>
+      <c r="AE45" s="97"/>
+      <c r="AF45" s="97"/>
+      <c r="AG45" s="98"/>
+      <c r="AH45" s="98"/>
+      <c r="AI45" s="98"/>
+      <c r="AJ45" s="98"/>
+      <c r="AK45" s="98"/>
+      <c r="AL45" s="98"/>
+      <c r="AM45" s="98"/>
+      <c r="AN45" s="98"/>
+      <c r="AO45" s="98"/>
+      <c r="AP45" s="98"/>
+      <c r="AQ45" s="98"/>
+      <c r="AR45" s="98"/>
+      <c r="AS45" s="98"/>
+      <c r="AT45" s="98"/>
+      <c r="AU45" s="98"/>
+      <c r="AV45" s="98"/>
+      <c r="AW45" s="98"/>
+      <c r="AX45" s="98"/>
+      <c r="AY45" s="98"/>
+      <c r="AZ45" s="98"/>
+      <c r="BA45" s="98"/>
+      <c r="BB45" s="110"/>
+    </row>
+    <row r="46" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="108"/>
+      <c r="B46" s="147" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="97"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="97"/>
+      <c r="O46" s="99"/>
+      <c r="P46" s="97"/>
+      <c r="Q46" s="97"/>
+      <c r="R46" s="97"/>
+      <c r="S46" s="99"/>
+      <c r="T46" s="97"/>
+      <c r="U46" s="97"/>
+      <c r="V46" s="97"/>
+      <c r="W46" s="97"/>
+      <c r="X46" s="97"/>
+      <c r="Y46" s="99"/>
+      <c r="Z46" s="97"/>
+      <c r="AA46" s="97"/>
+      <c r="AB46" s="97"/>
+      <c r="AC46" s="97"/>
+      <c r="AD46" s="97"/>
+      <c r="AE46" s="97"/>
+      <c r="AF46" s="97"/>
+      <c r="AG46" s="98"/>
+      <c r="AH46" s="98"/>
+      <c r="AI46" s="98"/>
+      <c r="AJ46" s="98"/>
+      <c r="AK46" s="98"/>
+      <c r="AL46" s="98"/>
+      <c r="AM46" s="98"/>
+      <c r="AN46" s="98"/>
+      <c r="AO46" s="98"/>
+      <c r="AP46" s="98"/>
+      <c r="AQ46" s="98"/>
+      <c r="AR46" s="98"/>
+      <c r="AS46" s="98"/>
+      <c r="AT46" s="98"/>
+      <c r="AU46" s="98"/>
+      <c r="AV46" s="98"/>
+      <c r="AW46" s="98"/>
+      <c r="AX46" s="98"/>
+      <c r="AY46" s="98"/>
+      <c r="AZ46" s="98"/>
+      <c r="BA46" s="98"/>
+      <c r="BB46" s="110"/>
+    </row>
+    <row r="47" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="108"/>
+      <c r="B47" s="147" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="97"/>
+      <c r="M47" s="97"/>
+      <c r="N47" s="97"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="97"/>
+      <c r="Q47" s="97"/>
+      <c r="R47" s="97"/>
+      <c r="S47" s="99"/>
+      <c r="T47" s="97"/>
+      <c r="U47" s="97"/>
+      <c r="V47" s="97"/>
+      <c r="W47" s="97"/>
+      <c r="X47" s="97"/>
+      <c r="Y47" s="99"/>
+      <c r="Z47" s="97"/>
+      <c r="AA47" s="97"/>
+      <c r="AB47" s="97"/>
+      <c r="AC47" s="97"/>
+      <c r="AD47" s="97"/>
+      <c r="AE47" s="97"/>
+      <c r="AF47" s="97"/>
+      <c r="AG47" s="98"/>
+      <c r="AH47" s="98"/>
+      <c r="AI47" s="98"/>
+      <c r="AJ47" s="98"/>
+      <c r="AK47" s="98"/>
+      <c r="AL47" s="98"/>
+      <c r="AM47" s="98"/>
+      <c r="AN47" s="98"/>
+      <c r="AO47" s="98"/>
+      <c r="AP47" s="98"/>
+      <c r="AQ47" s="98"/>
+      <c r="AR47" s="98"/>
+      <c r="AS47" s="98"/>
+      <c r="AT47" s="98"/>
+      <c r="AU47" s="98"/>
+      <c r="AV47" s="98"/>
+      <c r="AW47" s="98"/>
+      <c r="AX47" s="98"/>
+      <c r="AY47" s="98"/>
+      <c r="AZ47" s="98"/>
+      <c r="BA47" s="98"/>
+      <c r="BB47" s="110"/>
+    </row>
+    <row r="48" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="108"/>
+      <c r="B48" s="147" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="97"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="97"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="97"/>
+      <c r="M48" s="97"/>
+      <c r="N48" s="97"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="97"/>
+      <c r="Q48" s="97"/>
+      <c r="R48" s="97"/>
+      <c r="S48" s="99"/>
+      <c r="T48" s="97"/>
+      <c r="U48" s="97"/>
+      <c r="V48" s="97"/>
+      <c r="W48" s="97"/>
+      <c r="X48" s="97"/>
+      <c r="Y48" s="99"/>
+      <c r="Z48" s="97"/>
+      <c r="AA48" s="97"/>
+      <c r="AB48" s="97"/>
+      <c r="AC48" s="97"/>
+      <c r="AD48" s="97"/>
+      <c r="AE48" s="97"/>
+      <c r="AF48" s="97"/>
+      <c r="AG48" s="98"/>
+      <c r="AH48" s="98"/>
+      <c r="AI48" s="98"/>
+      <c r="AJ48" s="98"/>
+      <c r="AK48" s="98"/>
+      <c r="AL48" s="98"/>
+      <c r="AM48" s="98"/>
+      <c r="AN48" s="98"/>
+      <c r="AO48" s="98"/>
+      <c r="AP48" s="98"/>
+      <c r="AQ48" s="98"/>
+      <c r="AR48" s="98"/>
+      <c r="AS48" s="98"/>
+      <c r="AT48" s="98"/>
+      <c r="AU48" s="98"/>
+      <c r="AV48" s="98"/>
+      <c r="AW48" s="98"/>
+      <c r="AX48" s="98"/>
+      <c r="AY48" s="98"/>
+      <c r="AZ48" s="98"/>
+      <c r="BA48" s="98"/>
+      <c r="BB48" s="110"/>
+    </row>
+    <row r="49" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="111"/>
+      <c r="B49" s="147" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="98"/>
+      <c r="K49" s="98"/>
+      <c r="L49" s="98"/>
+      <c r="M49" s="98"/>
+      <c r="N49" s="98"/>
+      <c r="O49" s="98"/>
+      <c r="P49" s="98"/>
+      <c r="Q49" s="98"/>
+      <c r="R49" s="98"/>
+      <c r="S49" s="98"/>
+      <c r="T49" s="98"/>
+      <c r="U49" s="98"/>
+      <c r="V49" s="98"/>
+      <c r="W49" s="98"/>
+      <c r="X49" s="98"/>
+      <c r="Y49" s="98"/>
+      <c r="Z49" s="98"/>
+      <c r="AA49" s="98"/>
+      <c r="AB49" s="98"/>
+      <c r="AC49" s="98"/>
+      <c r="AD49" s="98"/>
+      <c r="AE49" s="98"/>
+      <c r="AF49" s="98"/>
+      <c r="AG49" s="98"/>
+      <c r="AH49" s="98"/>
+      <c r="AI49" s="98"/>
+      <c r="AJ49" s="98"/>
+      <c r="AK49" s="98"/>
+      <c r="AL49" s="98"/>
+      <c r="AM49" s="98"/>
+      <c r="AN49" s="98"/>
+      <c r="AO49" s="98"/>
+      <c r="AP49" s="98"/>
+      <c r="AQ49" s="98"/>
+      <c r="AR49" s="98"/>
+      <c r="AS49" s="98"/>
+      <c r="AT49" s="98"/>
+      <c r="AU49" s="98"/>
+      <c r="AV49" s="98"/>
+      <c r="AW49" s="98"/>
+      <c r="AX49" s="98"/>
+      <c r="AY49" s="98"/>
+      <c r="AZ49" s="98"/>
+      <c r="BA49" s="98"/>
+      <c r="BB49" s="110"/>
+    </row>
+    <row r="50" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="111"/>
+      <c r="B50" s="147" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
+      <c r="L50" s="98"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="98"/>
+      <c r="O50" s="98"/>
+      <c r="P50" s="98"/>
+      <c r="Q50" s="98"/>
+      <c r="R50" s="98"/>
+      <c r="S50" s="98"/>
+      <c r="T50" s="98"/>
+      <c r="U50" s="98"/>
+      <c r="V50" s="98"/>
+      <c r="W50" s="98"/>
+      <c r="X50" s="98"/>
+      <c r="Y50" s="98"/>
+      <c r="Z50" s="98"/>
+      <c r="AA50" s="98"/>
+      <c r="AB50" s="98"/>
+      <c r="AC50" s="98"/>
+      <c r="AD50" s="98"/>
+      <c r="AE50" s="98"/>
+      <c r="AF50" s="98"/>
+      <c r="AG50" s="98"/>
+      <c r="AH50" s="98"/>
+      <c r="AI50" s="98"/>
+      <c r="AJ50" s="98"/>
+      <c r="AK50" s="98"/>
+      <c r="AL50" s="98"/>
+      <c r="AM50" s="98"/>
+      <c r="AN50" s="98"/>
+      <c r="AO50" s="98"/>
+      <c r="AP50" s="98"/>
+      <c r="AQ50" s="98"/>
+      <c r="AR50" s="98"/>
+      <c r="AS50" s="98"/>
+      <c r="AT50" s="98"/>
+      <c r="AU50" s="98"/>
+      <c r="AV50" s="98"/>
+      <c r="AW50" s="98"/>
+      <c r="AX50" s="98"/>
+      <c r="AY50" s="98"/>
+      <c r="AZ50" s="98"/>
+      <c r="BA50" s="98"/>
+      <c r="BB50" s="110"/>
+    </row>
+    <row r="51" spans="1:54" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="112"/>
+      <c r="B51" s="150" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="113"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="113"/>
+      <c r="M51" s="113"/>
+      <c r="N51" s="113"/>
+      <c r="O51" s="113"/>
+      <c r="P51" s="113"/>
+      <c r="Q51" s="113"/>
+      <c r="R51" s="113"/>
+      <c r="S51" s="113"/>
+      <c r="T51" s="113"/>
+      <c r="U51" s="113"/>
+      <c r="V51" s="113"/>
+      <c r="W51" s="113"/>
+      <c r="X51" s="113"/>
+      <c r="Y51" s="113"/>
+      <c r="Z51" s="113"/>
+      <c r="AA51" s="113"/>
+      <c r="AB51" s="113"/>
+      <c r="AC51" s="113"/>
+      <c r="AD51" s="113"/>
+      <c r="AE51" s="113"/>
+      <c r="AF51" s="113"/>
+      <c r="AG51" s="113"/>
+      <c r="AH51" s="113"/>
+      <c r="AI51" s="113"/>
+      <c r="AJ51" s="113"/>
+      <c r="AK51" s="113"/>
+      <c r="AL51" s="113"/>
+      <c r="AM51" s="113"/>
+      <c r="AN51" s="113"/>
+      <c r="AO51" s="113"/>
+      <c r="AP51" s="113"/>
+      <c r="AQ51" s="113"/>
+      <c r="AR51" s="113"/>
+      <c r="AS51" s="113"/>
+      <c r="AT51" s="113"/>
+      <c r="AU51" s="113"/>
+      <c r="AV51" s="113"/>
+      <c r="AW51" s="113"/>
+      <c r="AX51" s="113"/>
+      <c r="AY51" s="113"/>
+      <c r="AZ51" s="113"/>
+      <c r="BA51" s="113"/>
+      <c r="BB51" s="114"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AY5:BB5"/>
+    <mergeCell ref="AY6:BB6"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:X2"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF48"/>
   <sheetViews>
@@ -6935,41 +15392,41 @@
     </row>
     <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="58" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="58" t="s">
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61" t="s">
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="64" t="s">
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="66"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="95"/>
       <c r="Y2" s="11" t="s">
         <v>12</v>
       </c>
@@ -6983,7 +15440,7 @@
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="57"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="14">
         <v>1</v>
       </c>
@@ -7382,11 +15839,11 @@
       <c r="Z12" s="33"/>
       <c r="AA12" s="35"/>
       <c r="AB12" s="36"/>
-      <c r="AC12" s="53" t="s">
+      <c r="AC12" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="55"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="84"/>
       <c r="AF12" s="37"/>
     </row>
     <row r="13" spans="1:32" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7420,11 +15877,11 @@
       <c r="Z13" s="33"/>
       <c r="AA13" s="35"/>
       <c r="AB13" s="38"/>
-      <c r="AC13" s="53" t="s">
+      <c r="AC13" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="55"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="84"/>
       <c r="AF13" s="37"/>
     </row>
     <row r="14" spans="1:32" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
